--- a/business/Module_7_RiskManagement.xlsx
+++ b/business/Module_7_RiskManagement.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>Impact Description</t>
   </si>
@@ -48,9 +48,6 @@
     <t>Customer acceptance</t>
   </si>
   <si>
-    <t>Risk Name (1 or 2 words)</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Risk Description</t>
   </si>
   <si>
@@ -60,15 +57,6 @@
     <t>Insufficient time</t>
   </si>
   <si>
-    <t>Release of new app delayed. Project costs will probably exceed the budget due to higher workforce expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Insufficient funding might slow down or totally stop the development of the new app. Furthermore, insufficient funding might also affect the product's quality </t>
-  </si>
-  <si>
-    <t>Lowers efficieny, longer dev times, higher dev costs</t>
-  </si>
-  <si>
     <t>No information on intended milestones from other projects in the programme. Difficult to confirm dependencies. Bad communication between projects and their managers, respectively</t>
   </si>
   <si>
@@ -84,22 +72,69 @@
     <t>Data security</t>
   </si>
   <si>
-    <t>Platform compatibility</t>
-  </si>
-  <si>
     <t>Team motivation</t>
   </si>
   <si>
     <t>Project management</t>
   </si>
   <si>
-    <t>Client buy in</t>
-  </si>
-  <si>
     <t>Probability [1-5]</t>
   </si>
   <si>
     <t>Impact [1-5]</t>
+  </si>
+  <si>
+    <t>Insufficient funding might slow down or totally stop the development of the new app. Furthermore, insufficient funding might also affect the product's quality and scope</t>
+  </si>
+  <si>
+    <t>Will delay the release of app. Project costs will probably exceed the budget due to higher workforce expenses</t>
+  </si>
+  <si>
+    <t>Lowers efficiency, longer dev times, higher dev costs</t>
+  </si>
+  <si>
+    <t>Competitors products simply better than DB's app</t>
+  </si>
+  <si>
+    <t>Customers do not accept new product due to poor usability</t>
+  </si>
+  <si>
+    <t>Customers will not use new technology or use competitors apps.
+No progress in efficieny and productivity of daily business.
+Wasted effort to develop new app</t>
+  </si>
+  <si>
+    <t>Customers likely to use competitor's app</t>
+  </si>
+  <si>
+    <t>Data insecure, might be corrupted</t>
+  </si>
+  <si>
+    <t>Trust/reputation concerns, fines, customer acceptance</t>
+  </si>
+  <si>
+    <t>Agile</t>
+  </si>
+  <si>
+    <t>Agile, team events, workshops</t>
+  </si>
+  <si>
+    <t>Customer surveys, customer service</t>
+  </si>
+  <si>
+    <t>Make sure developers are aware of data security standards, security trainings</t>
+  </si>
+  <si>
+    <t>Rescheduling training, provide documentation asap</t>
+  </si>
+  <si>
+    <t>Agile, weekly project manager meetings</t>
+  </si>
+  <si>
+    <t>Market analysis, analysis of existing products</t>
+  </si>
+  <si>
+    <t>Risk</t>
   </si>
 </sst>
 </file>
@@ -177,59 +212,553 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>628650</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1419225</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>80010</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>86553</xdr:rowOff>
     </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="Module 7 - No 2.JPG"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="11" name="Group 10"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="9770745" y="262890"/>
+          <a:ext cx="6482715" cy="3664143"/>
+          <a:chOff x="9336405" y="163830"/>
+          <a:chExt cx="6482715" cy="3664143"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="2" name="Picture 1" descr="Module 7 - No 2.JPG"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="9336405" y="163830"/>
+            <a:ext cx="6482715" cy="3664143"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
           <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
             </a:ext>
           </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="6696075" y="3105150"/>
-          <a:ext cx="4762500" cy="2886075"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="Oval 2"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11612880" y="1508760"/>
+            <a:ext cx="335280" cy="327660"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1600" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>1</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB" sz="1400" b="1">
               <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="Oval 3"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10957560" y="967740"/>
+            <a:ext cx="335280" cy="327660"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1600" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>2</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="Oval 4"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12872085" y="2061210"/>
+            <a:ext cx="335280" cy="327660"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1600" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>3</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="Oval 5"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12734925" y="2518410"/>
+            <a:ext cx="335280" cy="327660"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1600" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>4</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="Oval 6"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11622405" y="963930"/>
+            <a:ext cx="335280" cy="327660"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1600" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>5</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="Oval 7"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="13382625" y="1977390"/>
+            <a:ext cx="335280" cy="327660"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1600" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>6</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="9" name="Oval 8"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12986385" y="2678430"/>
+            <a:ext cx="335280" cy="327660"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1600" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>7</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10" name="Oval 9"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="13641705" y="2152650"/>
+            <a:ext cx="335280" cy="327660"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1600" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>8</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -500,102 +1029,138 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.42578125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="28.85546875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" customWidth="1"/>
-    <col min="7" max="7" width="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.44140625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="28.88671875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>10</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="E1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>14</v>
+        <v>21</v>
+      </c>
+      <c r="E2" s="3">
+        <v>3</v>
+      </c>
+      <c r="F2" s="3">
+        <v>2</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>13</v>
+        <v>22</v>
+      </c>
+      <c r="E3" s="3">
+        <v>4</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>15</v>
+        <v>23</v>
+      </c>
+      <c r="E4" s="3">
+        <v>2</v>
+      </c>
+      <c r="F4" s="3">
+        <v>4</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3">
+        <v>4</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -606,50 +1171,94 @@
         <v>7</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>18</v>
+        <v>14</v>
+      </c>
+      <c r="E6" s="3">
+        <v>4</v>
+      </c>
+      <c r="F6" s="3">
+        <v>2</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="C7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2</v>
+      </c>
+      <c r="F7" s="3">
+        <v>5</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3">
+        <v>4</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2</v>
+      </c>
+      <c r="F9" s="3">
+        <v>5</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>21</v>
-      </c>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="2"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>24</v>
-      </c>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="2"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C15"/>
     </row>
   </sheetData>
